--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C22" s="32" t="n"/>
       <c r="D22" s="33" t="n">
-        <v>329.033</v>
+        <v>378.388</v>
       </c>
     </row>
     <row r="23" ht="19.5" customHeight="1" s="1">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C23" s="30" t="n"/>
       <c r="D23" s="15" t="n">
-        <v>416.963</v>
+        <v>479.507</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" s="1"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C34" s="32" t="n"/>
       <c r="D34" s="35" t="n">
-        <v>324.496</v>
+        <v>373.17</v>
       </c>
       <c r="E34" s="4" t="n"/>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C35" s="30" t="n"/>
       <c r="D35" s="35" t="n">
-        <v>448.448</v>
+        <v>515.715</v>
       </c>
       <c r="E35" s="4" t="n"/>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C45" s="32" t="n"/>
       <c r="D45" s="33" t="n">
-        <v>398.242</v>
+        <v>457.978</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="1">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C46" s="30" t="n"/>
       <c r="D46" s="36" t="n">
-        <v>446.745</v>
+        <v>513.7569999999999</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE LATERAL TUBULAR DISMAY.xlsx
@@ -923,7 +923,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C22" s="32" t="n"/>
       <c r="D22" s="33" t="n">
-        <v>329.033</v>
+        <v>416.227</v>
       </c>
     </row>
     <row r="23" ht="19.5" customHeight="1" s="1">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C23" s="30" t="n"/>
       <c r="D23" s="15" t="n">
-        <v>416.963</v>
+        <v>527.458</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" s="1"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C34" s="32" t="n"/>
       <c r="D34" s="35" t="n">
-        <v>324.496</v>
+        <v>410.487</v>
       </c>
       <c r="E34" s="4" t="n"/>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C35" s="30" t="n"/>
       <c r="D35" s="35" t="n">
-        <v>448.448</v>
+        <v>567.287</v>
       </c>
       <c r="E35" s="4" t="n"/>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C45" s="32" t="n"/>
       <c r="D45" s="33" t="n">
-        <v>398.242</v>
+        <v>503.776</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="1">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C46" s="30" t="n"/>
       <c r="D46" s="36" t="n">
-        <v>446.745</v>
+        <v>565.133</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" s="1">
@@ -1157,20 +1157,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
